--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.bmwusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6FC1C4-1EB9-4784-B1A7-3647C89E2B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948BF3D-F77E-4113-BA48-E2338F82FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4403" yWindow="3638" windowWidth="16200" windowHeight="9307" xr2:uid="{F15093DB-1D47-4F84-BB97-98EA09F74ECD}"/>
+    <workbookView xWindow="3863" yWindow="1943" windowWidth="16200" windowHeight="9307" xr2:uid="{F15093DB-1D47-4F84-BB97-98EA09F74ECD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login_bmw" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Serpent9999+</t>
+  </si>
+  <si>
+    <t>auooz.akbar1996@gmail.com</t>
+  </si>
+  <si>
+    <t>Aydin1218*</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24DB524-B90F-4122-9175-A873B6B4035E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -437,6 +443,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{925444DD-9170-4758-A503-24EDCE58C6DE}"/>

--- a/com.bmwusa/src/test/resources/test_data.xlsx
+++ b/com.bmwusa/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.bmwusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948BF3D-F77E-4113-BA48-E2338F82FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E5EBC-A5B0-41D0-AD07-973D7D73AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3863" yWindow="1943" windowWidth="16200" windowHeight="9307" xr2:uid="{F15093DB-1D47-4F84-BB97-98EA09F74ECD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F15093DB-1D47-4F84-BB97-98EA09F74ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="login_bmw" sheetId="1" r:id="rId1"/>
@@ -419,12 +419,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
